--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R7.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="18140"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="25440" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -999,12 +999,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="W135" sqref="W135"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="V128" sqref="V128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="7.5" customWidth="1"/>
+    <col min="20" max="20" width="6.5" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="6" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3410,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="U43" s="35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V43" s="22" t="s">
         <v>63</v>
@@ -3451,7 +3471,7 @@
         <v>0.06</v>
       </c>
       <c r="K44" s="35">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="L44" s="35">
         <v>16.600000000000001</v>
@@ -9175,12 +9195,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="O120:P120"/>
     <mergeCell ref="K121:M121"/>
     <mergeCell ref="Q121:R121"/>
@@ -9190,6 +9204,12 @@
     <mergeCell ref="O91:P91"/>
     <mergeCell ref="K92:M92"/>
     <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
